--- a/Accounts-Schedules/تدريب ايرالو 26-5-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب ايرالو 26-5-2025 تجمع.xlsx
@@ -3894,7 +3894,7 @@
   <dimension ref="C1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:F28"/>
+      <selection activeCell="E18" sqref="E18:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
